--- a/DesignerConfigs/Datas/系统/门派.xlsx
+++ b/DesignerConfigs/Datas/系统/门派.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\XPlus\DesignerConfigs\Datas\系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4552E51C-009E-43E6-B80A-9B65D96E16B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F13C09D-CBF3-44A4-B28F-4ADB6F639CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>##type</t>
   </si>
@@ -264,13 +264,49 @@
   <si>
     <t>Assets/GameRes/Atlas/StaticAtlas/RoleCreateAtlas/Image/menpaiwenzi_06.png</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillList</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>创角显示的技能列表</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1106,1103,1105</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1206,1204,1201</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1306,1305,1301</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1406,1404,1405</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1506,1501,1502</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1606,1605,1603</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +392,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -433,7 +482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,36 +525,27 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -814,11 +854,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -827,13 +867,14 @@
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
     <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="80.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="105.75" style="16" customWidth="1"/>
-    <col min="8" max="8" width="25.75" customWidth="1"/>
-    <col min="9" max="9" width="37" style="18" customWidth="1"/>
+    <col min="6" max="6" width="80.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="31" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="37" customWidth="1"/>
+    <col min="10" max="10" width="26.375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:10" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,17 +893,20 @@
       <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5">
+      <c r="J1" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -878,20 +922,23 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5">
+      <c r="J2" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -899,12 +946,13 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5">
+      <c r="I3" s="10"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -929,11 +977,14 @@
       <c r="H4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5">
+      <c r="J4" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="3"/>
       <c r="B5" s="7" t="s">
         <v>15</v>
@@ -947,20 +998,23 @@
       <c r="E5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>48</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5">
+      <c r="J5" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="4"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
@@ -974,20 +1028,23 @@
       <c r="E6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5">
+      <c r="J6" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="4"/>
       <c r="B7" s="7" t="s">
         <v>17</v>
@@ -1001,20 +1058,23 @@
       <c r="E7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5">
+      <c r="J7" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5">
       <c r="A8" s="4"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -1034,14 +1094,17 @@
       <c r="G8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5">
+      <c r="J8" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="4"/>
       <c r="B9" s="7" t="s">
         <v>19</v>
@@ -1055,20 +1118,23 @@
       <c r="E9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5">
+      <c r="J9" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="4"/>
       <c r="B10" s="7" t="s">
         <v>20</v>
@@ -1082,18 +1148,36 @@
       <c r="E10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="17" t="s">
         <v>62</v>
       </c>
+      <c r="J10" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="J15" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
